--- a/Medidas de posicion y dispersion/Actividad_1_2_3.xlsx
+++ b/Medidas de posicion y dispersion/Actividad_1_2_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvega\Desktop\Yelnith\Duoc\Estadística Descriptiva con Python\Desarrollo de la asignatura MAT4141\Laboratorio 4\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magol\OneDrive\Pictures\Desktop\Estadistica descriptiva\Medidas de posicion y dispersion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D544596-23A4-4691-8D5E-C78DFF4139A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AC401-23CB-466A-9847-9246265D3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carreras e IES" sheetId="1" r:id="rId1"/>
@@ -917,33 +917,33 @@
   <dimension ref="A1:U1166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.9140625" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="45.8984375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.58203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="10" width="10.69921875" customWidth="1"/>
+    <col min="11" max="11" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45514,7 +45514,7 @@
       <c r="T1164" s="4"/>
       <c r="U1164" s="4"/>
     </row>
-    <row r="1165" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="8"/>
       <c r="B1165" s="4"/>
       <c r="C1165" s="8"/>
@@ -45537,7 +45537,7 @@
       <c r="T1165" s="4"/>
       <c r="U1165" s="4"/>
     </row>
-    <row r="1166" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1166" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1166" s="8"/>
       <c r="B1166" s="11"/>
       <c r="C1166" s="8"/>
